--- a/Data/Input/Monthly/InputExcelMonthly_16-02-2023.xlsx
+++ b/Data/Input/Monthly/InputExcelMonthly_16-02-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation\Data\Input\Monthly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92081FF3-1C55-499C-AFAC-2C4DE8992293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F94213E-1328-4576-BB5A-33E8B66718BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="1788" windowWidth="14208" windowHeight="6888" xr2:uid="{1317A1BB-265C-4FC3-8B01-B96D870E6B73}"/>
+    <workbookView xWindow="2136" yWindow="2136" windowWidth="14208" windowHeight="6888" xr2:uid="{1317A1BB-265C-4FC3-8B01-B96D870E6B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Job Number</t>
   </si>
@@ -86,33 +86,12 @@
     <t>URL</t>
   </si>
   <si>
-    <t>JO230213015</t>
-  </si>
-  <si>
-    <t>TOWNER CONSTRUCTION PTE LTD</t>
-  </si>
-  <si>
     <t>Adhoc / Daily</t>
   </si>
   <si>
-    <t>HC75T</t>
-  </si>
-  <si>
-    <t>13/02/2023 08:00 ~ 13/02/2023 17:00</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>13/02/2023 08:00 ~ 13/02/2023 12:00</t>
-  </si>
-  <si>
-    <t>IN 23020205</t>
-  </si>
-  <si>
-    <t>LIEW SOON HWA</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -122,39 +101,76 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Meixuan Tan
-15/02/2023 23:44</t>
-  </si>
-  <si>
-    <t>https://hhtc.insightservicing.sg/job/viewJob/30531</t>
-  </si>
-  <si>
-    <t>JO230215038</t>
-  </si>
-  <si>
-    <t>M METAL E&amp;C PTE LTD</t>
-  </si>
-  <si>
-    <t>40FT</t>
-  </si>
-  <si>
-    <t>15/02/2023 16:30 ~ 15/02/2023 20:30</t>
-  </si>
-  <si>
-    <t>15/02/2023 16:00 ~ 15/02/2023 20:00</t>
-  </si>
-  <si>
-    <t>IN 23020193</t>
-  </si>
-  <si>
-    <t>TAN BENG HOE</t>
-  </si>
-  <si>
-    <t>Meixuan Tan
-15/02/2023 23:38</t>
-  </si>
-  <si>
-    <t>https://hhtc.insightservicing.sg/job/viewJob/30675</t>
+    <t>JO230216029</t>
+  </si>
+  <si>
+    <t>TTJ DESIGN &amp; ENGINEERING PTE LTD</t>
+  </si>
+  <si>
+    <t>10X30L</t>
+  </si>
+  <si>
+    <t>16/02/2023 10:00 ~ 16/02/2023 14:00</t>
+  </si>
+  <si>
+    <t>16/02/2023 10:00 ~ 16/02/2023 16:30</t>
+  </si>
+  <si>
+    <t>MAN PENGLEI</t>
+  </si>
+  <si>
+    <t>MAN PENGLEI
+16/02/2023 16:11</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg/job/viewJob/30730</t>
+  </si>
+  <si>
+    <t>JO230216026</t>
+  </si>
+  <si>
+    <t>16/02/2023 11:00 ~ 16/02/2023 15:00</t>
+  </si>
+  <si>
+    <t>16/02/2023 11:00 ~ 16/02/2023 17:00</t>
+  </si>
+  <si>
+    <t>LI SONGLING</t>
+  </si>
+  <si>
+    <t>LI SONGLING
+16/02/2023 16:08</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg/job/viewJob/30727</t>
+  </si>
+  <si>
+    <t>JO230215001</t>
+  </si>
+  <si>
+    <t>VIGAHS MARINE TECHNOLOGIES PTE LTD</t>
+  </si>
+  <si>
+    <t>100T</t>
+  </si>
+  <si>
+    <t>16/02/2023 08:00 ~ 16/02/2023 17:00</t>
+  </si>
+  <si>
+    <t>16/02/2023 08:00 ~ 16/02/2023 12:00</t>
+  </si>
+  <si>
+    <t>16/02/2023 12:00 ~ 16/02/2023 17:00</t>
+  </si>
+  <si>
+    <t>NGOO KIN SION</t>
+  </si>
+  <si>
+    <t>NGOO KIN SION
+16/02/2023 16:03</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg/job/viewJob/30638</t>
   </si>
 </sst>
 </file>
@@ -509,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2216EEEE-0EED-4412-AE0B-A728384C244B}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,102 +583,152 @@
     </row>
     <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
